--- a/src/test/java/gbench/webapps/myfuture/api/model/data/datafile.xlsx
+++ b/src/test/java/gbench/webapps/myfuture/api/model/data/datafile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\slicef\ws\gitws\malonylcoa\src\test\java\gbench\webapps\myfuture\api\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8AFD8-CEA8-4687-B7F9-DA957D75C1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BF35EE-AEB0-4D29-A0E5-7DCA0D77180F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t_maozedong" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="405">
   <si>
     <t>第一次国内革命战争时期</t>
   </si>
@@ -1426,6 +1426,10 @@
   </si>
   <si>
     <t>-----------------------------------------------------------------------------------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNMATCHED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6528,10 +6532,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC51F45-DB58-4828-B9F8-B30FCB899E3C}">
-  <dimension ref="B105:I106"/>
+  <dimension ref="B2:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6542,59 +6546,66 @@
     <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>239</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C2" t="s">
         <v>400</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D2" t="s">
         <v>339</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E2" t="s">
         <v>396</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F2" t="s">
         <v>399</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G2" t="s">
         <v>398</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" t="s">
         <v>316</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B106">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C106">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D106">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E106">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F106">
+      <c r="F3">
         <v>1000</v>
       </c>
-      <c r="G106">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="H106" s="9">
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9">
         <v>45791.59375</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J3" t="s">
         <v>397</v>
       </c>
     </row>
@@ -7090,8 +7101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A516BBE4-BD44-4075-A09D-D56A5035C2EE}">
   <dimension ref="B2:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/test/java/gbench/webapps/myfuture/api/model/data/datafile.xlsx
+++ b/src/test/java/gbench/webapps/myfuture/api/model/data/datafile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\slicef\ws\gitws\malonylcoa\src\test\java\gbench\webapps\myfuture\api\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BF35EE-AEB0-4D29-A0E5-7DCA0D77180F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FCE9F1-3A1B-4B48-B2FC-AE5CA183AB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="406">
   <si>
     <t>第一次国内革命战争时期</t>
   </si>
@@ -1430,6 +1430,10 @@
   </si>
   <si>
     <t>UNMATCHED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVISION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6532,26 +6536,28 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC51F45-DB58-4828-B9F8-B30FCB899E3C}">
-  <dimension ref="B2:J3"/>
+  <dimension ref="B2:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>239</v>
       </c>
@@ -6574,13 +6580,19 @@
         <v>404</v>
       </c>
       <c r="I2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -6602,10 +6614,16 @@
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
         <v>45791.59375</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="9">
+        <v>45791.59375</v>
+      </c>
+      <c r="L3" t="s">
         <v>397</v>
       </c>
     </row>
